--- a/dataframe_overlap.xlsx
+++ b/dataframe_overlap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\OLX_TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D199B7-1D0C-4F5B-B3F0-C5118AE5A73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EFB11B-9AB6-430F-8D97-B080B072D5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,10 +418,22 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
